--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,69 +46,78 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>guess</t>
   </si>
   <si>
-    <t>junk</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>broken</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>though</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
@@ -121,13 +130,19 @@
     <t>work</t>
   </si>
   <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>better</t>
+    <t>used</t>
   </si>
   <si>
     <t>product</t>
@@ -136,9 +151,15 @@
     <t>price</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
@@ -151,27 +172,27 @@
     <t>negative</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
+    <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -188,6 +209,9 @@
   </si>
   <si>
     <t>friends</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
@@ -554,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,16 +668,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K3">
-        <v>0.8307692307692308</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -665,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,13 +697,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K4">
-        <v>0.7857142857142857</v>
+        <v>0.7538461538461538</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.765625</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +797,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7281553398058253</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +815,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K6">
-        <v>0.53125</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7258064516129032</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -841,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K7">
-        <v>0.4528301886792453</v>
+        <v>0.46875</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -865,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +897,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.71875</v>
+        <v>0.7087378640776699</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>0.3352459016393443</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L8">
-        <v>409</v>
+        <v>27</v>
       </c>
       <c r="M8">
-        <v>409</v>
+        <v>27</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>811</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6842105263157895</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>130</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K9">
-        <v>0.3333333333333333</v>
+        <v>0.3418032786885246</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>417</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>417</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>46</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6283783783783784</v>
+        <v>0.668918918918919</v>
       </c>
       <c r="C10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>0.3055954088952654</v>
+        <v>0.302725968436155</v>
       </c>
       <c r="L10">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M10">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5966386554621849</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="C11">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D11">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K11">
         <v>0.2448132780082987</v>
@@ -1073,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5625</v>
+        <v>0.5798319327731093</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K12">
         <v>0.225</v>
@@ -1123,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4898550724637681</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C13">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1141,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K13">
-        <v>0.2048192771084337</v>
+        <v>0.1927710843373494</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1165,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1173,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4814814814814815</v>
+        <v>0.5</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1191,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K14">
-        <v>0.1834862385321101</v>
+        <v>0.1620795107033639</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="M14">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1215,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>267</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,13 +1247,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4545454545454545</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1241,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K15">
-        <v>0.1216931216931217</v>
+        <v>0.1375661375661376</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1265,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1273,13 +1297,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4285714285714285</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1291,19 +1315,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K16">
-        <v>0.08326029798422437</v>
+        <v>0.1004016064257028</v>
       </c>
       <c r="L16">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="M16">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1315,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1046</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1323,13 +1347,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4259259259259259</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1341,31 +1365,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K17">
-        <v>0.02467532467532468</v>
+        <v>0.08413672217353199</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="N17">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1502</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1373,13 +1397,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4094488188976378</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1391,7 +1415,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>75</v>
+        <v>29</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18">
+        <v>0.03439325113562622</v>
+      </c>
+      <c r="L18">
+        <v>53</v>
+      </c>
+      <c r="M18">
+        <v>53</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1488</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1399,13 +1447,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3707865168539326</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1417,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1425,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3684210526315789</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C20">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1443,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1451,13 +1499,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3373493975903614</v>
+        <v>0.4</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1469,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1477,13 +1525,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3359375</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C22">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1495,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>85</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1503,13 +1551,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.297029702970297</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C23">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1521,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>142</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1529,25 +1577,25 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2748815165876777</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C24">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>58</v>
-      </c>
-      <c r="D24">
-        <v>58</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1555,13 +1603,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2478632478632479</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="C25">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1573,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1581,13 +1629,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2319587628865979</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1599,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>149</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1607,13 +1655,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1884057971014493</v>
+        <v>0.296875</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1625,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>224</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1633,13 +1681,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.185459940652819</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C28">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1651,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>549</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1659,13 +1707,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1645569620253164</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C29">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D29">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1677,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>264</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1685,13 +1733,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1613924050632911</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D30">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1703,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>265</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1711,13 +1759,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.16</v>
+        <v>0.1780415430267062</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1729,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>168</v>
+        <v>554</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1737,13 +1785,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1168224299065421</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1755,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>189</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1763,13 +1811,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1123348017621145</v>
+        <v>0.1656050955414013</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1781,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>403</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1789,25 +1837,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1095100864553314</v>
+        <v>0.1550632911392405</v>
       </c>
       <c r="C34">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="D34">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>309</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1815,13 +1863,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.07123287671232877</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="C35">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1833,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>339</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1841,25 +1889,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.06260296540362438</v>
+        <v>0.15</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E36">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>569</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1867,13 +1915,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.05122494432071269</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1885,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>426</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1893,25 +1941,207 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0316055625790139</v>
+        <v>0.1233480176211454</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D38">
+        <v>56</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.1152737752161383</v>
+      </c>
+      <c r="C39">
+        <v>40</v>
+      </c>
+      <c r="D39">
+        <v>41</v>
+      </c>
+      <c r="E39">
+        <v>0.02</v>
+      </c>
+      <c r="F39">
+        <v>0.98</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="C40">
         <v>28</v>
       </c>
-      <c r="E38">
-        <v>0.11</v>
-      </c>
-      <c r="F38">
-        <v>0.89</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>766</v>
+      <c r="D40">
+        <v>28</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.08767123287671233</v>
+      </c>
+      <c r="C41">
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>32</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.08614232209737828</v>
+      </c>
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.06578947368421052</v>
+      </c>
+      <c r="C43">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.05790645879732739</v>
+      </c>
+      <c r="C44">
+        <v>26</v>
+      </c>
+      <c r="D44">
+        <v>26</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.02911392405063291</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="E45">
+        <v>0.15</v>
+      </c>
+      <c r="F45">
+        <v>0.85</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>767</v>
       </c>
     </row>
   </sheetData>
